--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_52_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_52_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.019858264331138, 4.503344213075412]</t>
+          <t>[4.020745192064993, 4.502457285341556]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.1801764026376862, 0.09913381205366889]</t>
+          <t>[-0.18013921387385246, 0.09909662328983515]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.5618715292453076</v>
+        <v>0.5617677371362846</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5618715292453076</v>
+        <v>0.5617677371362846</v>
       </c>
       <c r="W2" t="n">
         <v>10.0082482482484</v>
